--- a/Nhom6_KiemThuWebsiteBanNon/TestReport/Nhom6_TestReport.xlsx
+++ b/Nhom6_KiemThuWebsiteBanNon/TestReport/Nhom6_TestReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Nhom6_KiemThuWebsiteBanNon\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Nhom6_KiemThuWebsiteBanNon\TestReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="Tìm Kiếm" sheetId="10" r:id="rId3"/>
     <sheet name="Thêm người dùng" sheetId="11" r:id="rId4"/>
     <sheet name="Đăng Ký" sheetId="12" r:id="rId5"/>
-    <sheet name="Thêm nhà sản xuất" sheetId="13" r:id="rId6"/>
-    <sheet name="Tìm Kiếm Người Dùng" sheetId="14" r:id="rId7"/>
+    <sheet name="Sửa Nhà Sản Xuất" sheetId="15" r:id="rId6"/>
+    <sheet name="Thêm nhà sản xuất" sheetId="13" r:id="rId7"/>
+    <sheet name="Tìm Kiếm Người Dùng" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Đăng nhập'!$A$7:$H$8</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="279">
   <si>
     <t>Function Test</t>
   </si>
@@ -593,9 +594,6 @@
 Địa Chỉ: Hiệp Thành</t>
   </si>
   <si>
-    <t>Xuất thông báo "Mật Khẩu Không Được Bỏ Trống"</t>
-  </si>
-  <si>
     <t>TC_DangKy_11</t>
   </si>
   <si>
@@ -642,59 +640,6 @@
 Email: test01
 Số Điện Thoại: 0918224935
 Địa Chỉ: Hiệp Thành</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "null"</t>
-  </si>
-  <si>
-    <t>11/23/2020</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "Đăng ký thành công"</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "Ngày Sinh Không Được Bỏ Trống"</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "Tên Đăng Nhập Không Được Bỏ Trống"</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "Email không được trống"</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "Số Điện Thoại Không Được Bỏ Trống"</t>
-  </si>
-  <si>
-    <t>Họ Và Tên: Nguyễn Văn A
-Ngày Sinh: 25/08/1999
-Tên Đăng Nhập: test02
-Mật Khẩu: Test@123
-Email: test01@gmail.com
-Số Điện Thoại: 0918224935
-Địa Chỉ:</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "Đại Chỉ Không Được Bỏ Trống"</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "The field NgaySinh must be a date."</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "Mật Khẩu (Mật Khẩu Không Đủ Mạnh,Mật Khẩu Phải Trên 8 Ký Tự,Có Ký 1 Tự Hoa,Thường,Số,Và Ký Tự Đặc Biệt Vd: NguyenVanA@&amp;5674)"</t>
-  </si>
-  <si>
-    <t>Expected: "Mật Khẩu (Mật Khẩu Không Đủ Mạnh,Mật Khẩu Phải Trên 8 Ký Tự,C..." 
-But was: "Mật Khẩu Không Được Bỏ Trống"</t>
-  </si>
-  <si>
-    <t>Đăng ký tài khoản, nhập các thông tin. Nhập mật khẩu &gt;8 ký tự</t>
-  </si>
-  <si>
-    <t>Xuất thông báo "Email không đúng định dạng"</t>
-  </si>
-  <si>
-    <t>Expected: "Vui lòng bao gồm '@' trong địa chỉ email." 
-But was: null</t>
   </si>
   <si>
     <t>Thêm nhà sản xuất http://webbannon.somee.com/Admin_QLNSX/QuanLyNhaSanXuat_Them</t>
@@ -983,12 +928,104 @@
   <si>
     <t>TC_ QL_timkiemND_09</t>
   </si>
+  <si>
+    <t>Sửa Nhà Sản Xuất - http://webbannon.somee.com/Admin_QLNSX/QuanLyNhaSanXuat</t>
+  </si>
+  <si>
+    <t>TC_SuaNhaSanXuat_01</t>
+  </si>
+  <si>
+    <t>Sửa nhà sản xuất, nhập đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>1. Truy cập vào http://webbannon.somee.com/Admin_QLNSX/QuanLyNhaSanXuat
+2. Ấn vào nút sửa 
+3. Cập nhập nhà sản xuất</t>
+  </si>
+  <si>
+    <t>Tên Nhà Sản Xuất: Test
+Nước Sản Xuất:Test</t>
+  </si>
+  <si>
+    <t>Thông báo "(CẬP NHẬT NHÀ SẢN XUẤT THÀNH CÔNG )"</t>
+  </si>
+  <si>
+    <t>TC_SuaNhaSanXuat_02</t>
+  </si>
+  <si>
+    <t>Sửa nhà sản xuất, nhập tên nhà sản xuất, bỏ trống nước sản xuất</t>
+  </si>
+  <si>
+    <t>Tên Nhà Sản Xuất: Test
+Nước Sản Xuất:</t>
+  </si>
+  <si>
+    <t>Thông báo "Tên Nhà Sản Xuất ( Tên Nhà Sản Xuất Không Được Bỏ Trống )"</t>
+  </si>
+  <si>
+    <t>TC_SuaNhaSanXuat_03</t>
+  </si>
+  <si>
+    <t>Sửa nhà sản xuất, nhập nước sản xuất, bỏ trống tên nhà sản xuất</t>
+  </si>
+  <si>
+    <t>Tên Nhà Sản Xuất:
+Nước Sản Xuất:Test</t>
+  </si>
+  <si>
+    <t>Thông báo "Nước Sản Xuất ( Nước Sản Xuất Không Được Bỏ Trống )"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Đăng ký thành công"</t>
+  </si>
+  <si>
+    <t>Không xuất thông báo trờ về trang chủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Ngày Sinh Không Được Bỏ Trống"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Tên Đăng Nhập Không Được Bỏ Trống"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Mật Khẩu Không Được Bỏ Trống"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Email không được trống"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Số Điện Thoại Không Được Bỏ Trống"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Họ Và Tên: Nguyễn Văn A
+Ngày Sinh: 25/08/1999
+Tên Đăng Nhập: test02
+Mật Khẩu: Test@123
+Email: test01@gmail.com
+Số Điện Thoại: 0918224935
+Địa Chỉ: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Đại Chỉ Không Được Bỏ Trống"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Value must be 01/01/1970 or later."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "Mật Khẩu (Mật Khẩu Không Đủ Mạnh,Mật Khẩu Phải Trên 8 Ký Tự,Có Ký 1 Tự Hoa,Thường,Số,Và Ký Tự Đặc Biệt Vd: NguyenVanA@&amp;5674)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng ký tài khoản, nhập các thông tin. Nhập mật khẩu &gt;8 ký tự </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xuất thông báo "ease include an '@' in the email address. 'test01' is missing an '@'."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1193,40 +1230,76 @@
       <charset val="163"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,14 +1353,8 @@
         <bgColor indexed="32"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF25973B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1568,127 +1635,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,58 +1864,43 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1994,62 +1936,88 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="2" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal_Sheet1" xfId="2"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
     <cellStyle name="Note 2" xfId="3"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="4"/>
   </cellStyles>
@@ -2288,15 +2256,15 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -2320,15 +2288,15 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2352,15 +2320,15 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102">
+      <c r="B3" s="99">
         <v>44158</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -30470,43 +30438,43 @@
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="104">
         <v>44158</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="30"/>
@@ -30710,41 +30678,41 @@
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="67"/>
@@ -30980,41 +30948,41 @@
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="67"/>
@@ -31236,480 +31204,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="115"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="81" t="s">
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A3" s="81" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83" t="s">
+      <c r="B3" s="136">
+        <v>44158</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="134"/>
+    </row>
+    <row r="4" spans="1:8" ht="38.25">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="84"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="86">
+      <c r="F4" s="111"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="112"/>
+      <c r="B5" s="117">
+        <v>13</v>
+      </c>
+      <c r="C5" s="117">
+        <v>1</v>
+      </c>
+      <c r="D5" s="117">
+        <v>0</v>
+      </c>
+      <c r="E5" s="117">
+        <v>14</v>
+      </c>
+      <c r="F5" s="111"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="116"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+    </row>
+    <row r="7" spans="1:8" ht="66">
+      <c r="A7" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="86">
-        <v>5</v>
-      </c>
-      <c r="D5" s="86">
-        <v>0</v>
-      </c>
-      <c r="E5" s="86">
+      <c r="D7" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="84"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-    </row>
-    <row r="7" spans="1:8" ht="50.25" thickBot="1">
-      <c r="A7" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="145.5" customHeight="1" thickBot="1">
-      <c r="A8" s="90" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="171.75" customHeight="1">
+      <c r="A8" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="93" t="s">
+      <c r="E8" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="126"/>
+    </row>
+    <row r="9" spans="1:8" ht="141" customHeight="1">
+      <c r="A9" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="91"/>
-    </row>
-    <row r="9" spans="1:8" ht="106.5" customHeight="1" thickBot="1">
-      <c r="A9" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="91" t="s">
+      <c r="G9" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="126"/>
+    </row>
+    <row r="10" spans="1:8" ht="126.75" customHeight="1">
+      <c r="A10" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="93" t="s">
+      <c r="D10" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="91"/>
-    </row>
-    <row r="10" spans="1:8" ht="139.5" customHeight="1" thickBot="1">
-      <c r="A10" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="91" t="s">
+      <c r="G10" s="122" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="126"/>
+    </row>
+    <row r="11" spans="1:8" ht="162" customHeight="1">
+      <c r="A11" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="93" t="s">
+      <c r="D11" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="91"/>
-    </row>
-    <row r="11" spans="1:8" ht="136.5" customHeight="1" thickBot="1">
-      <c r="A11" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="91" t="s">
+      <c r="G11" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="127"/>
+    </row>
+    <row r="12" spans="1:8" ht="154.5" customHeight="1">
+      <c r="A12" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="126" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="93" t="s">
+      <c r="D12" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="95"/>
-    </row>
-    <row r="12" spans="1:8" ht="139.5" customHeight="1" thickBot="1">
-      <c r="A12" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="91" t="s">
+      <c r="G12" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="128"/>
+    </row>
+    <row r="13" spans="1:8" ht="150" customHeight="1">
+      <c r="A13" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="92" t="s">
+      <c r="D13" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="H13" s="129"/>
+    </row>
+    <row r="14" spans="1:8" ht="186" customHeight="1">
+      <c r="A14" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="126" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="129"/>
+    </row>
+    <row r="15" spans="1:8" ht="173.25" customHeight="1">
+      <c r="A15" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="129"/>
+    </row>
+    <row r="16" spans="1:8" ht="183" customHeight="1">
+      <c r="A16" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="122" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="130"/>
+    </row>
+    <row r="17" spans="1:8" ht="143.25" customHeight="1">
+      <c r="A17" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="131"/>
+    </row>
+    <row r="18" spans="1:8" ht="180" customHeight="1">
+      <c r="A18" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="B18" s="126" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="95"/>
-    </row>
-    <row r="13" spans="1:8" ht="138.75" customHeight="1" thickBot="1">
-      <c r="A13" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="91" t="s">
+      <c r="G18" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="131"/>
+    </row>
+    <row r="19" spans="1:8" ht="192.75" customHeight="1">
+      <c r="A19" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="93" t="s">
+      <c r="D19" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="96"/>
-    </row>
-    <row r="14" spans="1:8" ht="124.5" customHeight="1" thickBot="1">
-      <c r="A14" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="91" t="s">
+      <c r="G19" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="131"/>
+    </row>
+    <row r="20" spans="1:8" ht="162" customHeight="1">
+      <c r="A20" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="93" t="s">
+      <c r="D20" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="94" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="96"/>
-    </row>
-    <row r="15" spans="1:8" ht="103.5" customHeight="1" thickBot="1">
-      <c r="A15" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="91" t="s">
+      <c r="G20" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="131"/>
+    </row>
+    <row r="21" spans="1:8" ht="165.75" customHeight="1">
+      <c r="A21" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="93" t="s">
+      <c r="D21" s="126" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="120" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="96"/>
-    </row>
-    <row r="16" spans="1:8" ht="91.5" customHeight="1" thickBot="1">
-      <c r="A16" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="95"/>
-    </row>
-    <row r="17" spans="1:8" ht="100.5" customHeight="1" thickBot="1">
-      <c r="A17" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="97" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="130.5" customHeight="1" thickBot="1">
-      <c r="A18" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="97" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="112.5" customHeight="1" thickBot="1">
-      <c r="A19" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="97" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="130.5" customHeight="1" thickBot="1">
-      <c r="A20" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="97" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="118.5" customHeight="1" thickBot="1">
-      <c r="A21" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" s="97" t="s">
-        <v>185</v>
-      </c>
+      <c r="G21" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31723,6 +31680,238 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="107">
+        <v>44158</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74">
+        <f>COUNTIF(F8:F10,"Pass")</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="74">
+        <f>COUNTIF(F8:F10,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="74">
+        <f>COUNTIF(F8:F10,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="74">
+        <f>COUNTA(F8:F10)</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="72"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25">
+      <c r="A7" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="94.5" customHeight="1">
+      <c r="A8" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="93" t="str">
+        <f>E8</f>
+        <v>Thông báo "(CẬP NHẬT NHÀ SẢN XUẤT THÀNH CÔNG )"</v>
+      </c>
+      <c r="H8" s="94"/>
+    </row>
+    <row r="9" spans="1:8" ht="96.75" customHeight="1">
+      <c r="A9" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="78" t="str">
+        <f>E9</f>
+        <v>Thông báo "Tên Nhà Sản Xuất ( Tên Nhà Sản Xuất Không Được Bỏ Trống )"</v>
+      </c>
+      <c r="H9" s="79"/>
+    </row>
+    <row r="10" spans="1:8" ht="84.75" customHeight="1">
+      <c r="A10" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="78" t="str">
+        <f>E10</f>
+        <v>Thông báo "Nước Sản Xuất ( Nước Sản Xuất Không Được Bỏ Trống )"</v>
+      </c>
+      <c r="H10" s="79"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F10">
+      <formula1>$B$5:$D$5</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F7:G7 G8"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -31745,43 +31934,43 @@
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="B2" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-    </row>
-    <row r="4" spans="1:8" ht="38.25">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="67"/>
       <c r="B4" s="68" t="s">
         <v>3</v>
@@ -31831,7 +32020,7 @@
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
     </row>
-    <row r="7" spans="1:8" ht="38.25">
+    <row r="7" spans="1:8" ht="25.5">
       <c r="A7" s="64" t="s">
         <v>7</v>
       </c>
@@ -31859,115 +32048,115 @@
     </row>
     <row r="8" spans="1:8" ht="83.25" customHeight="1">
       <c r="A8" s="57" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="62" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="93.75" customHeight="1">
       <c r="A9" s="57" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="123"/>
-      <c r="H9" s="124" t="s">
-        <v>199</v>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="129.75" customHeight="1">
       <c r="A10" s="57" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="65"/>
       <c r="H10" s="62" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="134.25" customHeight="1">
       <c r="A11" s="57" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="62" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="127.5" customHeight="1">
       <c r="A12" s="57" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>3</v>
@@ -31979,75 +32168,75 @@
     </row>
     <row r="13" spans="1:8" ht="121.5" customHeight="1">
       <c r="A13" s="57" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="122" t="s">
-        <v>220</v>
+        <v>203</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>204</v>
       </c>
       <c r="G13" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="125"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="1:8" ht="129.75" customHeight="1">
       <c r="A14" s="57" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C14" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="126" t="s">
-        <v>225</v>
+      <c r="G14" s="81"/>
+      <c r="H14" s="84" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="99" customHeight="1">
       <c r="A15" s="57" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="F15" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="80" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="127"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="57"/>
@@ -32055,8 +32244,8 @@
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
       <c r="E16" s="78"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="123"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="14.25">
@@ -32065,9 +32254,9 @@
       <c r="C17" s="58"/>
       <c r="D17" s="58"/>
       <c r="E17" s="78"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="128"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="86"/>
     </row>
     <row r="18" spans="1:8" ht="14.25">
       <c r="A18" s="57"/>
@@ -32075,9 +32264,9 @@
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
       <c r="E18" s="78"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="128"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="57"/>
@@ -32085,19 +32274,19 @@
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
       <c r="E19" s="78"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="128"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -32119,11 +32308,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -32139,43 +32328,43 @@
       <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="B4" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
+      <c r="B5" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.25">
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="67"/>
       <c r="B7" s="68" t="s">
         <v>3</v>
@@ -32251,45 +32440,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="153">
+    <row r="11" spans="1:8" ht="76.5">
       <c r="A11" s="57" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="65"/>
       <c r="H11" s="62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="140.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="63.75">
       <c r="A12" s="58" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>111</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F12" s="66" t="s">
         <v>3</v>
@@ -32299,21 +32488,21 @@
       </c>
       <c r="H12" s="79"/>
     </row>
-    <row r="13" spans="1:8" ht="127.5">
+    <row r="13" spans="1:8" ht="63.75">
       <c r="A13" s="58" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>3</v>
@@ -32323,21 +32512,21 @@
       </c>
       <c r="H13" s="79"/>
     </row>
-    <row r="14" spans="1:8" ht="127.5">
+    <row r="14" spans="1:8" ht="63.75">
       <c r="A14" s="58" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>3</v>
@@ -32347,21 +32536,21 @@
       </c>
       <c r="H14" s="79"/>
     </row>
-    <row r="15" spans="1:8" ht="127.5">
+    <row r="15" spans="1:8" ht="63.75">
       <c r="A15" s="58" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="F15" s="61" t="s">
         <v>3</v>
@@ -32371,69 +32560,69 @@
       </c>
       <c r="H15" s="79"/>
     </row>
-    <row r="16" spans="1:8" ht="127.5">
+    <row r="16" spans="1:8" ht="63.75">
       <c r="A16" s="58" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F16" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="130" t="s">
+      <c r="G16" s="88" t="s">
         <v>86</v>
       </c>
       <c r="H16" s="79"/>
     </row>
-    <row r="17" spans="1:8" ht="127.5">
+    <row r="17" spans="1:8" ht="63.75">
       <c r="A17" s="58" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F17" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="130" t="s">
+      <c r="G17" s="88" t="s">
         <v>86</v>
       </c>
       <c r="H17" s="79"/>
     </row>
-    <row r="18" spans="1:8" ht="114.75">
+    <row r="18" spans="1:8" ht="51">
       <c r="A18" s="57" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F18" s="61" t="s">
         <v>3</v>
@@ -32443,26 +32632,26 @@
       </c>
       <c r="H18" s="62"/>
     </row>
-    <row r="19" spans="1:8" ht="114.75">
+    <row r="19" spans="1:8" ht="51">
       <c r="A19" s="59" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="131" t="s">
-        <v>257</v>
+        <v>240</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>241</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" s="122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="123" t="s">
+      <c r="G19" s="81" t="s">
         <v>86</v>
       </c>
       <c r="H19" s="59"/>
